--- a/技术部绩效考核试执行版.xlsx
+++ b/技术部绩效考核试执行版.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zc/Desktop/sgk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,6 +25,9 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="43">
   <si>
     <t xml:space="preserve">XX月份绩效评定考核表 </t>
   </si>
@@ -241,6 +244,10 @@
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>dsfsdfs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -258,6 +265,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -265,6 +273,7 @@
       <sz val="20"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -272,30 +281,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -303,11 +317,13 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -560,6 +576,33 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -578,9 +621,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -602,29 +642,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,15 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,26 +971,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -1025,14 +1041,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1041,8 +1057,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1052,8 +1068,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1063,8 +1079,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1074,8 +1090,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1085,8 +1101,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,8 +1112,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1107,8 +1123,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1118,8 +1134,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1155,187 +1171,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B19:G19"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="E6:F13"/>
@@ -1349,6 +1360,11 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,26 +1396,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -1450,14 +1466,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1466,8 +1482,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1477,8 +1493,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1488,8 +1504,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1499,8 +1515,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1510,8 +1526,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1521,8 +1537,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1532,8 +1548,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1543,8 +1559,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1580,188 +1596,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -1774,6 +1784,12 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1804,26 +1820,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -1874,66 +1890,66 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="49">
         <v>35</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="49">
         <v>30</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1941,8 +1957,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1950,8 +1966,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1959,8 +1975,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1996,192 +2012,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -2194,6 +2200,16 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2224,26 +2240,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,57 +2310,57 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="49">
         <v>35</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="49">
         <v>35</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="53"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="53"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2354,8 +2370,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2365,8 +2381,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2376,8 +2392,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2387,8 +2403,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2424,192 +2440,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -2622,6 +2628,16 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2633,7 +2649,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2652,26 +2668,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -2722,14 +2738,14 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -2744,8 +2760,10 @@
       <c r="D6" s="12">
         <v>40</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2753,8 +2771,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2762,8 +2780,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2771,8 +2789,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2780,8 +2798,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2789,8 +2807,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2798,8 +2816,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2807,8 +2825,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2844,188 +2862,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -3038,6 +3050,12 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3068,26 +3086,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -3138,14 +3156,14 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -3160,8 +3178,8 @@
       <c r="D6" s="12">
         <v>40</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3169,8 +3187,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3178,8 +3196,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3187,8 +3205,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3196,8 +3214,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3205,8 +3223,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3214,8 +3232,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3223,8 +3241,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3260,188 +3278,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -3454,6 +3466,12 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3484,26 +3502,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -3554,14 +3572,14 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -3572,8 +3590,8 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3583,8 +3601,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3594,8 +3612,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3605,8 +3623,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3616,8 +3634,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3627,8 +3645,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3638,8 +3656,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3649,8 +3667,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3686,188 +3704,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -3880,6 +3892,12 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,26 +3928,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -3980,14 +3998,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -3996,8 +4014,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4007,8 +4025,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4018,8 +4036,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4029,8 +4047,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4040,8 +4058,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4051,8 +4069,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4062,8 +4080,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4073,8 +4091,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4110,188 +4128,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -4304,6 +4316,12 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4334,26 +4352,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -4404,14 +4422,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -4420,8 +4438,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4431,8 +4449,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4442,8 +4460,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4453,8 +4471,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4464,8 +4482,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4475,8 +4493,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4486,8 +4504,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4497,8 +4515,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4534,188 +4552,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -4728,6 +4740,12 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4758,26 +4776,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -4828,14 +4846,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -4844,8 +4862,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4855,8 +4873,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4866,8 +4884,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4877,8 +4895,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4888,8 +4906,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4899,8 +4917,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4910,8 +4928,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4921,8 +4939,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4958,188 +4976,182 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -5152,6 +5164,12 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技术部绩效考核试执行版.xlsx
+++ b/技术部绩效考核试执行版.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zc/Desktop/sgk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huang/GitHub/sgk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,9 +25,6 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -245,7 +242,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>dsfsdfs</t>
+    <t xml:space="preserve">我先弄zijidsjf </t>
+    <rPh sb="0" eb="1">
+      <t>woxiann</t>
+    </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -576,6 +576,48 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,48 +641,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -971,26 +971,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -1041,14 +1041,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1057,8 +1057,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1068,8 +1068,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1079,8 +1079,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1090,8 +1090,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1101,8 +1101,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1112,8 +1112,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1123,8 +1123,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1134,8 +1134,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1171,182 +1171,187 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="E6:F13"/>
@@ -1360,11 +1365,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,26 +1396,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,14 +1466,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1482,8 +1482,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1493,8 +1493,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1504,8 +1504,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1515,8 +1515,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1526,8 +1526,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1537,8 +1537,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1548,8 +1548,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1559,8 +1559,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1596,182 +1596,188 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -1784,12 +1790,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1820,26 +1820,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -1890,14 +1890,14 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
@@ -1912,8 +1912,8 @@
       <c r="D6" s="49">
         <v>30</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1921,8 +1921,8 @@
       <c r="B7" s="47"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1930,8 +1930,8 @@
       <c r="B8" s="47"/>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1939,8 +1939,8 @@
       <c r="B9" s="47"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1948,8 +1948,8 @@
       <c r="B10" s="48"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1957,8 +1957,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1966,8 +1966,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1975,8 +1975,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2012,182 +2012,192 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -2200,16 +2210,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2240,26 +2240,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -2310,14 +2310,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
@@ -2332,8 +2332,8 @@
       <c r="D6" s="49">
         <v>35</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2341,8 +2341,8 @@
       <c r="B7" s="53"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2350,8 +2350,8 @@
       <c r="B8" s="53"/>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2359,8 +2359,8 @@
       <c r="B9" s="54"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2370,8 +2370,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2381,8 +2381,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2392,8 +2392,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2403,8 +2403,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2440,182 +2440,192 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -2628,16 +2638,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2649,7 +2649,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2668,26 +2668,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -2738,14 +2738,14 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -2760,10 +2760,10 @@
       <c r="D6" s="12">
         <v>40</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2771,8 +2771,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2780,8 +2780,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2789,8 +2789,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2798,8 +2798,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2807,8 +2807,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2816,8 +2816,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2825,8 +2825,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2862,182 +2862,188 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -3050,12 +3056,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3086,26 +3086,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -3156,14 +3156,14 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -3178,8 +3178,8 @@
       <c r="D6" s="12">
         <v>40</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3187,8 +3187,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3196,8 +3196,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3205,8 +3205,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3214,8 +3214,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3223,8 +3223,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3232,8 +3232,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3241,8 +3241,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3278,182 +3278,188 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -3466,12 +3472,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3502,26 +3502,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -3572,14 +3572,14 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -3590,8 +3590,8 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3601,8 +3601,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3612,8 +3612,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3623,8 +3623,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3634,8 +3634,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3645,8 +3645,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3656,8 +3656,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3667,8 +3667,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3704,182 +3704,188 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -3892,12 +3898,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3928,26 +3928,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -3998,14 +3998,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -4014,8 +4014,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4025,8 +4025,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4036,8 +4036,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4047,8 +4047,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4058,8 +4058,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4069,8 +4069,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4080,8 +4080,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4091,8 +4091,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4128,182 +4128,188 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -4316,12 +4322,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4352,26 +4352,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -4422,14 +4422,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -4438,8 +4438,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4449,8 +4449,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4460,8 +4460,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4471,8 +4471,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4482,8 +4482,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4493,8 +4493,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4504,8 +4504,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4515,8 +4515,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4552,182 +4552,188 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -4740,12 +4746,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4776,26 +4776,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -4846,14 +4846,14 @@
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -4862,8 +4862,8 @@
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4873,8 +4873,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4884,8 +4884,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4895,8 +4895,8 @@
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4906,8 +4906,8 @@
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4917,8 +4917,8 @@
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4928,8 +4928,8 @@
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4939,8 +4939,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4976,182 +4976,188 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>3</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>5</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>9</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>10</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>11</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E6:F13"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
@@ -5164,12 +5170,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E6:F13"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
